--- a/WaterSamples/WaterSamplingSpreadsheet.xlsx
+++ b/WaterSamples/WaterSamplingSpreadsheet.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/CurrituckCroatanCarbon2023/WaterSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE7BBE-F551-B740-9B41-75BBA02B24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90072ED8-984D-7442-BE17-56AC9E75AC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15900" xr2:uid="{5AF00E61-9C7B-D649-8876-9FA9E6E5D723}"/>
+    <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15900" xr2:uid="{5AF00E61-9C7B-D649-8876-9FA9E6E5D723}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="water samples" sheetId="1" r:id="rId1"/>
+    <sheet name="CO2 " sheetId="3" r:id="rId2"/>
+    <sheet name="rt conductivity measurements" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +68,24 @@
   </si>
   <si>
     <t>raw sample in field; then filtered in lab using tower system; used the same filter as other samples taken on 8/29/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity </t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Time Start</t>
+  </si>
+  <si>
+    <t>Time Stop</t>
   </si>
 </sst>
 </file>
@@ -89,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -198,6 +224,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +543,7 @@
   <dimension ref="A4:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,4 +903,608 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE82E05-A855-3543-B3B7-DC6F5FFE3FF3}">
+  <dimension ref="A3:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44802</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44802</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44802</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44802</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44802</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6513E5B-9F8B-A049-AF34-15D53604EC50}">
+  <dimension ref="A2:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>